--- a/tests/pytest_b35.xlsx
+++ b/tests/pytest_b35.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF13E0E7-EDBC-48CE-A60C-9840D4FDFA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A635AF6-27D5-432F-B832-7AC91CE00551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="False Negs" sheetId="2" r:id="rId1"/>
     <sheet name="False Pos" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'False Negs'!$C$2:$W$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'False Negs'!$C$2:$AI$3</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
   <si>
     <t>DQB1*03:01</t>
   </si>
@@ -121,6 +121,66 @@
   </si>
   <si>
     <t>C*</t>
+  </si>
+  <si>
+    <t>DPA11_R</t>
+  </si>
+  <si>
+    <t>DPA12_R</t>
+  </si>
+  <si>
+    <t>DPB11_R</t>
+  </si>
+  <si>
+    <t>DPB12_R</t>
+  </si>
+  <si>
+    <t>DPA1*</t>
+  </si>
+  <si>
+    <t>DPB1*</t>
+  </si>
+  <si>
+    <t>DRB3451_R</t>
+  </si>
+  <si>
+    <t>DRB3452_R</t>
+  </si>
+  <si>
+    <t>DQA11_R</t>
+  </si>
+  <si>
+    <t>DQA12_R</t>
+  </si>
+  <si>
+    <t>DRB345*</t>
+  </si>
+  <si>
+    <t>DQA1*</t>
+  </si>
+  <si>
+    <t>DPA11_D</t>
+  </si>
+  <si>
+    <t>DPA12_D</t>
+  </si>
+  <si>
+    <t>DPB11_D</t>
+  </si>
+  <si>
+    <t>DPB12_D</t>
+  </si>
+  <si>
+    <t>DRB3451_D</t>
+  </si>
+  <si>
+    <t>DRB3452_D</t>
+  </si>
+  <si>
+    <t>DQA11_D</t>
+  </si>
+  <si>
+    <t>DQA12_D</t>
   </si>
 </sst>
 </file>
@@ -203,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +276,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,24 +564,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2FF63-4C5E-4611-9E93-6C23063652A5}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.77734375" style="2"/>
+    <col min="1" max="16384" width="12.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -543,107 +609,203 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AD2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="AJ2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="W3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="X3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Y3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="Z3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AA3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AB3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AC3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AD3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AI3" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -654,24 +816,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843CE29D-CE6F-46AA-B26F-0FC90401288F}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.77734375" style="2"/>
+    <col min="1" max="16384" width="12.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -699,107 +861,203 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AD2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="AJ2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="W3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="X3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Y3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="Z3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AA3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AB3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AC3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AD3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AI3" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tests/pytest_b35.xlsx
+++ b/tests/pytest_b35.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A635AF6-27D5-432F-B832-7AC91CE00551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E6CED3-DDF7-4EF9-83EF-FC465BA5F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19298" yWindow="-645" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="False Negs" sheetId="2" r:id="rId1"/>
